--- a/P0009/09_FICHAS/N2-FP-INFORME.xlsx
+++ b/P0009/09_FICHAS/N2-FP-INFORME.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28318"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\S3_Buckets\foa-prod-comp-fenomenologico-bucket\foa_puj_curada\P0009\09_FICHAS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livejaverianaedu-my.sharepoint.com/personal/crivera_javeriana_edu_co/Documents/Mojana control de archivos/REV_FICHAS/FICHAS/P0009/09_FICHAS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78829E3D-5096-4CF0-A89E-083EB6500265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="55" documentId="13_ncr:1_{78829E3D-5096-4CF0-A89E-083EB6500265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3759A5DB-D8E6-4747-B9E4-B1B1DCBA14F2}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="9570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="73">
   <si>
     <t>CODIGO DE PROYECTO</t>
   </si>
@@ -101,6 +101,9 @@
     <t>PRODUCTO D</t>
   </si>
   <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0009/02_PRODUCTOS/DOCS/Informes Finales/PRODUCTO D.pdf</t>
+  </si>
+  <si>
     <t>Omar Darío Cardona A</t>
   </si>
   <si>
@@ -116,10 +119,10 @@
     <t>pdf</t>
   </si>
   <si>
-    <t>El documento presenta una evaluación probabilista del riesgo de inundación en base a escenarios históricos de amenaza de la región de la Mojana. Dicho documento esta estructurado en los siguientes capítulos principales: (I), contiene una breve introducción al contexto del proyecto y los objetivos a desarrollar del estudio. (II), este capítulo explico la metodología utilizada para la evaluación probabilista del riesgo incluyendo los siguientes componentes: la amenaza como componente del análisis de riesgo, elementos expuestos, vulnerabilidad de los elementos expuestos, cálculo del riesgos y métricas del riesgo como: la perdida anual esperada (PAE), la perdida máxima probable (PMB) y la probabilidad de quiebra (PQ). (III), en este capítulo se presentaron los 5 escenarios históricos de inundación utilizados en el análisis, los cuales fueron: el primer escenario comprendido desde 04/02/2009 a 07/01/2009, el segundo, de 07/08/2010 a 10/06/2010, tercero, de 08/2010 a 11/19/2010, cuarto, de 08/08/2010 a 11/2/2010 y quinto, de 09/24/2010 a 12/23/2010, todos ellos con representaciones mediante mapas. El (IV) capítulo, describió, la valoración de elementos expuestos, incluyendo: portafolios de construcciones convencionales donde se estimó el valor de reposición en viviendas afectadas en la zona rural y urbana, construcciones de uso comercial, institucional y bareque. Igualmente se estima el valor de reposición para portafolios de energía y telecomunicaciones únicamente al sistema de soporte de redes aéreas: posto y torres. Así mismo, este valor de reposición se estimo para portafolios de cultivos, teniendo en cuanta la localización georreferenciada y la valoración de os cultivos agrícolas. En el (V), este capitulo presento los resultados de la evaluación del riesgo para el portafolio completo de edificaciones, incluyendo los resultados por municipio, por material de la edificación, por sistema estructural y por uso de la edificación. Para el (VI) capítulo, se exponen los resultados de la evaluación del riesgo en el portafolio completo de infraestructura energía y telecomunicaciones teniendo en cuanta los resultados por municipio y por el tipo de elementos expuestos (poste y torres). Por último en el  (VII) capitulo, presento los resultados de la evaluación de riesgo para los cultivos agrícolas, específicamente en los cultivos de arroz y maíz teniendo en cuenta los resultados por municipio, por tipo de cultivo y por sistema de cultivo.</t>
-  </si>
-  <si>
-    <t>No</t>
+    <t>El documento presenta una evaluación probabilista del riesgo de inundación con base en escenarios históricos de amenaza de la región de la Mojana. Dicho documento esta estructurado en los siguientes capítulos principales: (I), contiene una breve introducción al contexto del proyecto y los objetivos a desarrollar del estudio. (II), este capítulo explico la metodología utilizada para la evaluación probabilista del riesgo incluyendo los siguientes componentes: la amenaza como componente del análisis de riesgo, elementos expuestos, vulnerabilidad de los elementos expuestos, cálculo del riesgos y métricas del riesgo como: la perdida anual esperada (PAE), la perdida máxima probable (PMB) y la probabilidad de quiebra (PQ). (III), en este capítulo se presentaron los 5 escenarios históricos de inundación utilizados en el análisis, los cuales fueron: el primer escenario comprendido desde 04/02/2009 a 07/01/2009, el segundo, de 07/08/2010 a 10/06/2010, tercero, de 08/2010 a 11/19/2010, cuarto, de 08/08/2010 a 11/2/2010 y quinto, de 09/24/2010 a 12/23/2010, todos ellos con representaciones mediante mapas. El (IV) capítulo, describió, la valoración de elementos expuestos, incluyendo: portafolios de construcciones convencionales donde se estimó el valor de reposición en viviendas afectadas en la zona rural y urbana, construcciones de uso comercial, institucional y bahareque. Igualmente se estima el valor de reposición para portafolios de energía y telecomunicaciones únicamente al sistema de soporte de redes aéreas: posto y torres. Así mismo, este valor de reposición se estimo para portafolios de cultivos, teniendo en cuanta la localización georreferenciada y la valoración de os cultivos agrícolas. En el (V), este capitulo presento los resultados de la evaluación del riesgo para el portafolio completo de edificaciones, incluyendo los resultados por municipio, por material de la edificación, por sistema estructural y por uso de la edificación. Para el (VI) capítulo, se exponen los resultados de la evaluación del riesgo en el portafolio completo de infraestructura energía y telecomunicaciones teniendo en cuanta los resultados por municipio y por el tipo de elementos expuestos (poste y torres). Por último en el  (VII) capitulo, presento los resultados de la evaluación de riesgo para los cultivos agrícolas, específicamente en los cultivos de arroz y maíz teniendo en cuenta los resultados por municipio, por tipo de cultivo y por sistema de cultivo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No </t>
   </si>
   <si>
     <t xml:space="preserve">El documento no contiene información social relevante. Contiene información pertinente para el componente abiótico en tanto se centra en los conceptos de riesgo y amenaza orientados hacia la infraestructura, y puede contener información pertinente para el componente socioecológico en tanto se refiere a las afectaciones y amenazas de inundación en los cultivos. </t>
@@ -134,16 +137,19 @@
     <t>PRODUCTO FGH</t>
   </si>
   <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0009/02_PRODUCTOS/DOCS/Informes Finales/PRODUCTO FGH.pdf</t>
+  </si>
+  <si>
     <t>El documento contiene la evaluación de la relación costo-beneficio de las diferentes alternativas de reducción del riesgo con fines de aportar insumos a la definición del plan de acción de la región de La Mojana y de esta manera acompañar técnicamente en el proceso de definición del plan de acción de la región de La Mojana.</t>
   </si>
   <si>
-    <t xml:space="preserve">El documento se estructura al rededor de la infraestructura, específicamente de los diques, y plantea alternativas para su intervención, expone la amenza integrada a estas estructuras y las mejores intervenciones posibles a realizar. Tiene un componente significativo de evaluación del riesgo para los diques, un componente de implicaciones ambientales, y una evaluación holística de las alternativas de intervención. </t>
+    <t xml:space="preserve">El documento se estructura alrededor de la infraestructura, específicamente de los diques, y plantea alternativas para su intervención, expone la amenza integrada a estas estructuras y las mejores intervenciones posibles a realizar. Tiene un componente significativo de evaluación del riesgo para los diques, un componente de implicaciones ambientales, y una evaluación holística de las alternativas de intervención. </t>
   </si>
   <si>
     <t xml:space="preserve">La información social contenida en el informe es cuantitativa, pues se compone de indicadores de amenaza física y resiliencia socioeconómica de los municipios de la mojana, que tienen el objetivo de medir el riesgo de inundación y los posibles impactos sociales de las intervenciones. El documento tiene información pertinente para el componente abiótico, en tanto se centra en la evaluación de alternativas para la intervención de estructuras (diques). Contiene información pertinente para los componentes biótico y socio ecológico, en tanto tiene un componente de implicaciones ambientales de la intervención. </t>
   </si>
   <si>
-    <t>Riesgo de inundación, alternativas de intervención, vulnerabilidad, evaluación holítica del riesgo</t>
+    <t>Riesgo de inundación, alternativas de intervención, vulnerabilidad, evaluación holística del riesgo</t>
   </si>
   <si>
     <t>PR0003</t>
@@ -152,13 +158,13 @@
     <t>PRODUCTO GH</t>
   </si>
   <si>
-    <t>Este documento contiene el análisis costo-beneficio de las alternativas seleccionadas por el Fondo Adaptación y  las recomendaciones al Fondo Adaptación sobre las alternativas de intervención para reducción de la amenazay/o de la vulnerabilidad con su respectiva combinación de  medidas estructurales y no estructurales, conforme a los lineamientos suministrados por el Fondo.</t>
-  </si>
-  <si>
-    <t>El documento aborda la identificación de alternativas de intervención para la reducción del riesgo de inundación en la región de la Mojana. Este documento se encuentra estructurado por capítulos, donde el capítulo 1, inicio con una introducción que establece el contexto del estudio, enfatizando la necesidad de un enfoque integral para la gestión del riesgo de inundación. En el Capítulo 2, se centró en la evaluación de los costos asociados con diferentes alternativas de intervención en los cuales se analizaron tres tipos de intervenciones: a. costos de alternativas de intervención al dique marginal, b. costos de construcción de muros de protección de cabeceras municipales y c. costos de construcción de vivienda palafítica. El capítulo 3, presento la metodología utilizada para seleccionar las opciones de intervención. Se utilizo un algoritmo genético para optimizar las decisiones, una estructura detallada del mismo y un sistema de puntuación que permitió evaluar las diferentes alternativas. Este enfoque busco maximizar la eficacia de las intervenciones propuestas. El capitulo 4, presento los resultados de la selección de opciones de intervención, donde se destacaron varias alternativas específicas. Cada opción se evaluó en términos de su costo, efectividad y viabilidad. Se incluyeron gráficos que comparan las pérdidas anuales esperadas y las primas de las diferentes opciones, proporcionando una visión clara de su impacto potencial. Seguidamente el capitulo 5, abordo las implicaciones ambientales de las intervenciones propuestas. Se discutieron aspectos como la conectividad de ecosistemas, el pulso de inundación y la política hídrica nacional.  Se evaluaron los servicios ecosistémicos internos y exógenos, así como la protección de humedales, lo que resaltó la importancia de considerar el medio ambiente en la planificación de intervenciones. En el capitulo 5 presento un marco conceptual y una metodología para evaluar las alternativas de intervención desde una perspectiva holística. Se introdujo indicadores de fragilidad socioeconómica y resiliencia institucional, así como la determinación de factores de riesgo físico. Este análisis integral permitió una comprensión mas profunda de como las intervenciones pueden impactar a las comunidades. Por último, el capítulo 7, se centró en la integridad de las acciones propuestas en el plan de acción. Se identificaron problemas y conflictos en diversas áreas, incluyendo infraestructura, aspectos sociales ye económicos y se proponen estrategias de acción y programas para abordar estos desafíos. Se enfatizo la necesidad de un enfoque coordinado que integre medidas estructurales y no estructurales para una gestión efectiva del riesgo de inundación.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> No</t>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0009/02_PRODUCTOS/DOCS/Informes Finales/PRODUCTO GH.pdf</t>
+  </si>
+  <si>
+    <t>Este documento contiene el análisis costo-beneficio de las alternativas seleccionadas por el Fondo Adaptación y  las recomendaciones al Fondo Adaptación sobre las alternativas de intervención para reducción de la amenaza o de la vulnerabilidad con su respectiva combinación de  medidas estructurales y no estructurales, conforme a los lineamientos suministrados por el Fondo.</t>
+  </si>
+  <si>
+    <t>El documento aborda la identificación de alternativas de intervención para la reducción del riesgo de inundación en la región de la Mojana. Este documento se encuentra estructurado por capítulos, donde el capítulo 1, inicio con una introducción que establece el contexto del estudio, enfatizando la necesidad de un enfoque integral para la gestión del riesgo de inundación. En el Capítulo 2, se centró en la evaluación de los costos asociados con diferentes alternativas de intervención en los cuales se analizaron tres tipos de intervenciones: a. costos de alternativas de intervención al dique marginal, b. costos de construcción de muros de protección de cabeceras municipales y c. costos de construcción de vivienda palafítica. El capítulo 3, presento la metodología utilizada para seleccionar las opciones de intervención. Se utilizo un algoritmo genético para optimizar las decisiones, una estructura detallada del mismo y un sistema de puntuación que permitió evaluar las diferentes alternativas. Este enfoque busco maximizar la eficacia de las intervenciones propuestas. El capitulo 4, presento los resultados de la selección de opciones de intervención, donde se destacaron varias alternativas específicas. Cada opción se evaluó en términos de su costo, efectividad y viabilidad. Se incluyeron gráficos que comparan las pérdidas anuales esperadas y las primas de las diferentes opciones, proporcionando una visión clara de su impacto potencial. Seguidamente el capitulo 5, abordó las implicaciones ambientales de las intervenciones propuestas. Se discutieron aspectos como la conectividad de ecosistemas, el pulso de inundación y la política hídrica nacional.  Se evaluaron los servicios ecosistémicos internos y exógenos, así como la protección de humedales, lo que resaltó la importancia de considerar el medio ambiente en la planificación de intervenciones. En el capitulo 5 presentó un marco conceptual y una metodología para evaluar las alternativas de intervención desde una perspectiva holística. Se introdujo indicadores de fragilidad socioeconómica y resiliencia institucional, así como la determinación de factores de riesgo físico. Este análisis integral permitió una comprensión más profunda de como las intervenciones pueden impactar a las comunidades. Por último, el capítulo 7, se centró en la integridad de las acciones propuestas en el plan de acción. Se identificaron problemas y conflictos en diversas áreas, incluyendo infraestructura, aspectos sociales y económicos, y se propusieron estrategias de acción y programas para abordar estos desafíos. Se enfatizó la necesidad de un enfoque coordinado que integre medidas estructurales y no estructurales para una gestión efectiva del riesgo de inundación.</t>
   </si>
   <si>
     <t xml:space="preserve">En lo social, el informe enuncia sin desarrollar, en sus páginas 145, 146 y 147, una serie de problemas sociales que aquejan la Mojana. Entre las páginas 148 y 152 enuncia los elementos de un posible plan de acción social en la Mojana. En la página 143 se menciona un documento llamado "Caracterización social del riesgo de inundación en La Mojana y apoyo en la definición de acciones para un Plan de Acción, (Narváez et al, 2015)", que sería bueno encontrar y revisar por su pertinencia social. El documento tiene información pertinente para el componente abiótico, en tanto se centra en la evaluación de alternativas para la intervención de estructuras (diques). Contiene información pertinente para los componentes biótico y socio ecológico, en tanto tiene un componente de implicaciones ambientales de la intervención. </t>
@@ -173,16 +179,13 @@
     <t>PRODUCTO A</t>
   </si>
   <si>
-    <t>Este documento corresponde al primer producto de la consultoría que realizó el seguimiento y acompañamiento al FONDO ADAPTACIÓN y a sus equipos técnico y de modelación para La Mojana en la identificación de alternativas de intervención para la reducción del riesgo de inundación, realizar la modelación de vulnerabilidad por inundación así como la modelación probabilística del riesgo para estimación de pérdidas, en situación actual y de escenarios futuros, evaluar la relación el beneficio-costo de las alternativas identificadas, y acompañar técnicamente a la Coordinación Técnica en el proceso de definición del plan de acción para La Mojana. Este primer producto es un documento que contiene las recomendaciones sobre la metodología y el procedimiento general de análisis de la amenaza por inundación para efectos de la modelación del riesgo por inundaciones como resultado del acompañamiento realizado.</t>
-  </si>
-  <si>
-    <t>El documento se divide en 3 partes. La primera parte es una introducción que incluye las bases del análisis de riesgo, razón por la cual el  grupo consultor dio lineamientos al equipo de modelación hidrodinámica. La segunda parte hace una descripción completa de la representación probabilista de la amenaza con fines de evaluación del riesgo. Esta sección incluye el desarrollo matemático del enfoque basado en eventos, así como consideraciones acerca de la incertidumbre en la evaluación de la amenaza. La  tercera parte es la descripción detallada del formato .AME, en el cual deben entregarse al grupo consultor los resultados de la modelación hidrodinámica. Esta sección incluye 3 opciones que puede seguir el equipo de modelación para el desarrollo del archivo .AME de amenaza por inundación de La Mojana. El documento incluye unos Anexos con temas asociados principalmente a la construcción del archivo .AME, así como un Anexo Digital en donde se incluye un ejemplo de formato .AME, la herramienta computacional FileCAT para la conversión entre diferentes tipos de archivos y la interfaz computacional de objetos .AME.</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>Desde la página 26</t>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0009/02_PRODUCTOS/DOCS/Informes Finales/PRODUCTO A.pdf</t>
+  </si>
+  <si>
+    <t>Este documento corresponde al primer producto de la consultoría que realizó el seguimiento y acompañamiento al FONDO ADAPTACIÓN y a sus equipos técnicos y de modelación para La Mojana en la identificación de alternativas de intervención para la reducción del riesgo de inundación, realizar la modelación de vulnerabilidad por inundación así como la modelación probabilística del riesgo para estimación de pérdidas, en situación actual y de escenarios futuros, evaluar la relación el beneficio-costo de las alternativas identificadas, y acompañar técnicamente a la Coordinación Técnica en el proceso de definición del plan de acción para La Mojana. Este primer producto es un documento que contiene las recomendaciones sobre la metodología y el procedimiento general de análisis de la amenaza por inundación para efectos de la modelación del riesgo por inundaciones como resultado del acompañamiento realizado.</t>
+  </si>
+  <si>
+    <t>El documento se divide en 3 partes. La primera parte es una introducción que incluye las bases del análisis de riesgo, razón por la cual el grupo consultor dio lineamientos al equipo de modelación hidrodinámica. La segunda parte hace una descripción completa de la representación probabilista de la amenaza con fines de evaluación del riesgo. Esta sección incluye el desarrollo matemático del enfoque basado en eventos, así como consideraciones acerca de la incertidumbre en la evaluación de la amenaza. La tercera parte es la descripción detallada del formato .AME, en el cual deben entregarse al grupo consultor los resultados de la modelación hidrodinámica. Esta sección incluye 3 opciones que puede seguir el equipo de modelación para el desarrollo del archivo .AME de amenaza por inundación de La Mojana. El documento incluye unos Anexos con temas asociados principalmente a la construcción del archivo .AME, así como un Anexo Digital en donde se incluye un ejemplo de formato .AME, la herramienta computacional FileCAT para la conversión entre diferentes tipos de archivos y la interfaz computacional de objetos .AME.</t>
   </si>
   <si>
     <t>El documento no contiene información social relevante. Contiene información pertinente para el componente abiótico.</t>
@@ -197,19 +200,19 @@
     <t>PRODUCTO B</t>
   </si>
   <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0009/02_PRODUCTOS/DOCS/Informes Finales/PRODUCTO B.pdf</t>
+  </si>
+  <si>
     <t>Este documento corresponde al segundo producto de la consultoría que realizó el seguimiento y acompañamiento al FONDO ADAPTACIÓN y a sus equipos técnico y de modelación para La Mojana en la identificación de alternativas de intervención para la reducción del riesgo de inundación, realizar la modelación de vulnerabilidad por inundación así como la modelación probabilística del riesgo para estimación de pérdidas, en situación actual y de escenarios futuros, evaluar la relación el beneficio-costo de las alternativas identificadas, y acompañar técnicamente a la Coordinación Técnica en el proceso de definición del plan de acción para La Mojana. Este segundo producto es un documento que recoje el análisis de la información de los elementos expuestos como resultado del acompañamiento realizado para la articualción con la evaluación probabilista.</t>
   </si>
   <si>
-    <t>El documento aborda el análisis de la información de los elementos expuestos e información mínima necesaria para la articulación con la evaluación probabilista el cual se divide en 4 capítulos. El primer capítulo introduce el documento con la descripción general de lo que son los elementos expuestos y sus características dentro del contexto de la evaluación del riesgo. El segundo capítulo contiene los lineamientos para el levantamiento de información de elementos expuestos, como los formatos de almacenamiento, el componente de datos, componentes geográficos, los metadatos, y la información básica necesaria para la caracterización de construcciones, infraestructura de trasporte, de servicios público y de comunicaciones. El tercer capítulo da cuenta de la información disponible frente al corregimiento del Guazo con respecto a 3 actividades: la identificación de elementos expuestos rurales y urbanos, la tipología catastral de los centros poblados, y la cobertura y uso de la tierra. El último capítulo hace un pequeño análisis de la información geográfica de los elementos expuestos, así como la información relacionada que califica dichos elementos entre los necesarios para el análisis probabilista de riesgo. Este último capítulo tiene algunas conclusiones frente a la información siniestrada. Como, por ejemplo, que la información no es suficiente para asignar un modelo de vulnerabilidad ajustado a los elementos expuesto; que hace falta la caracterización de muchos de los parámetros físicos que definen los elementos y su vulnerabilidad; y, por último, que no se incluye información relacionada a la valoración de los elementos expuestos, ni a su ocupación.</t>
-  </si>
-  <si>
-    <t>Página 40</t>
+    <t>El documento aborda el análisis de la información de los elementos expuestos e información mínima necesaria para la articulación con la evaluación probabilista el cual se divide en 4 capítulos. El primer capítulo introduce el documento con la descripción general de lo que son los elementos expuestos y sus características dentro del contexto de la evaluación del riesgo. El segundo capítulo contiene los lineamientos para el levantamiento de información de elementos expuestos, como los formatos de almacenamiento, el componente de datos, componentes geográficos, los metadatos, y la información básica necesaria para la caracterización de construcciones, infraestructura de transporte, de servicios público y de comunicaciones. El tercer capítulo da cuenta de la información disponible frente al corregimiento del Guazo con respecto a 3 actividades: la identificación de elementos expuestos rurales y urbanos, la tipología catastral de los centros poblados, y la cobertura y uso de la tierra. El último capítulo hace un pequeño análisis de la información geográfica de los elementos expuestos, así como la información relacionada que califica dichos elementos entre los necesarios para el análisis probabilista de riesgo. Este último capítulo tiene algunas conclusiones frente a la información siniestrada. Como, por ejemplo, que la información no es suficiente para asignar un modelo de vulnerabilidad ajustado a los elementos expuesto; que hace falta la caracterización de muchos de los parámetros físicos que definen los elementos y su vulnerabilidad; y, por último, que no se incluye información relacionada a la valoración de los elementos expuestos, ni a su ocupación.</t>
   </si>
   <si>
     <t>El documento no contiene información del componente social. En el último capítulo, se mencionan los datos que se encontraron y los datos ausentes, pero no se describe nada que pueda ser util en relación con lo social. En cambio, el documento sí contiene información pertinente para el componente abiótico.</t>
   </si>
   <si>
-    <t>Elementos expuestos, evaluación del riesgo, datos, tipología catastral,análisis probabilista, La Mojana, Guazo</t>
+    <t>Elementos expuestos, evaluación del riesgo, datos, tipología catastral, análisis probabilista, La Mojana, Guazo</t>
   </si>
   <si>
     <t>PR0006</t>
@@ -218,138 +221,47 @@
     <t>PRODUCTO C</t>
   </si>
   <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0009/02_PRODUCTOS/DOCS/Informes Finales/PRODUCTO C.pdf</t>
+  </si>
+  <si>
     <t>Este documento corresponde al tercer producto de la consultoría que realizó el seguimiento y acompañamiento al FONDO ADAPTACIÓN y a sus equipos técnico y de modelación para La Mojana en la identificación de alternativas de intervención para la reducción del riesgo de inundación, realizar la modelación de vulnerabilidad por inundación así como la modelación probabilística del riesgo para estimación de pérdidas, en situación actual y de escenarios futuros, evaluar la relación el beneficio-costo de las alternativas identificadas, y acompañar técnicamente a la Coordinación Técnica en el proceso de definición del plan de acción para La Mojana. Este tercer producto es un documento que recoge el resultado de la modelación de vulnerabilidad ante inundaciones y la definición de curvas de vulnerabilidad para los diferentes elementos expuestos existentes en la región de La Mojana.</t>
   </si>
   <si>
-    <t>El documento se divide en 3 partes. La primera parte hace una introducción al documento en la que se describe de manera general la modelación de la vulnerabilidad dentro del contexto de la evaluación del riesgo. La segunda parte hace una descripción detalla de lo que esla vulnerabilidad, cómo se modela y cómo se interpreta, en términos matematicos, dentro de la evaluación de las pérdidas económicas. El tercer capítulo, y el más largo, detalla la metodología empleada para la evaluación de funciones de vulnerabilidad de construcciones regulares, infraestructura y cultivos en la región de la Mojana y la correspondiente colección de funciones de vulnerabilidad, derivadas de la aplicación de la metodología presentada, las cuales serán aplicadas en la evaluación del riesgo, y que constituyen a la fecha la mejor información en vulnerabilidad ante inundaciones existente tanto para la región como a nivel nacional.</t>
+    <t>El documento se divide en 3 partes. La primera parte hace una introducción al documento en la que se describe de manera general la modelación de la vulnerabilidad dentro del contexto de la evaluación del riesgo. La segunda parte hace una descripción detalla de la vulnerabilidad, cómo se modela y cómo se interpreta, en términos matemáticos, dentro de la evaluación de las pérdidas económicas. El tercer capítulo, y el más largo, detalla la metodología empleada para la evaluación de funciones de vulnerabilidad de construcciones regulares, infraestructura y cultivos en la región de la Mojana y la correspondiente colección de funciones de vulnerabilidad, derivadas de la aplicación de la metodología presentada, las cuales serán aplicadas en la evaluación del riesgo, y que constituyen a la fecha la mejor información en vulnerabilidad ante inundaciones existente tanto para la región como a nivel nacional.</t>
   </si>
   <si>
     <t>El documento no contiene información relevante para componente social. En el último capítulo, se mencionan algunso datos respecto a los sistemas de producción y la variedad de cultvos que se pueden tener en cuenta, pero es poca información. En cambio, el documento sí contiene información pertinente para el componente abiótico.</t>
   </si>
   <si>
-    <t>Vulnerabilidad, evaluación del riesgo, modelacion, inundaciones, cultivos, infraestructura, edificaciones, La Mojana, Achí, Ayapel, Caimito, Guaranda, MAgangué, Majagual, NEchí, San Benito, San Benito Abad, San Jacinto, San Jacinto del Cauca, San Marcos, Sucre</t>
+    <t>Vulnerabilidad, evaluación del riesgo, modelacion, inundaciones, cultivos, infraestructura, edificaciones, La Mojana, Achí, Ayapel, Caimito, Guaranda, Magangué, Majagual, Nechí, San Benito, San Benito Abad, San Jacinto, San Jacinto del Cauca, San Marcos, Sucre</t>
   </si>
   <si>
     <t>PR0007</t>
   </si>
   <si>
-    <t>INFORME FINAL (Informe 11)</t>
-  </si>
-  <si>
-    <t>Este informe presento los resultados de una consultoría especializada realizada por e Fondo Adaptación, con el objetico de apoyar la identificación de alternativas de intervención para reducir el riesgo de inundación en la región de La Mojana</t>
-  </si>
-  <si>
-    <t>Este informe aborda la identificación de alternativas de intervención para reducir el riesgo de inundación en la región de La Mojana. Este estudio se enfoco en cuatro aspectos principales: 1. El seguimiento y acompañamiento para la identificación de alternativas de intervención, 2. Realización de la modelación de vulnerabilidad de inundación y la modelación probabilística de riesgo para caracterización de perdidas, en situación actual y de escenarios futuros, 3. Evaluación de la relación beneficio-costo de las alternativas identificadas, 4. Acompañamiento técnico al proceso de definición del plan de acción para la Mojana.  La metodología de análisis y evaluación del riesgo utilizo un enfoque probabilista para el análisis de riesgo, considerando los componentes de amenaza, elementos expuestos y vulnerabilidad. Se calcularon métricas de riesgo como la curva de excedencia de perdidas y la perdida máxima probable. En cuanto a la caracterización de elementos expuestos, se genero una base de datos detallada de elementos expuestos, incluyendo construcciones (viviendas, infraestructura de salud y educación), infraestructura de energía y telecomunicaciones, y cultivos. Se realizo una valoración económica de los elementos expuestos para estimar las perdidas potenciales. La evaluación probabilista de la amenaza por inundación analizo escenarios históricos y futuros de inundación, considerando la situación actual y las alternativas de intervención propuestas, además, se realizó un análisis de probabilidades de excedencia para diferentes alturas de inundación. La modelación de la vulnerabilidad ante inundaciones desarrollo modelos de vulnerabilidad probabilistas para edificaciones, infraestructura y cultivos, utilizando curvas de vulnerabilidad que relacionan el nivel de inundación con la variación de los momentos de probabilidad de las perdidas. Seguidamente, la evaluación probabilista del riesgo físico por inundación evaluó el riesgo para los portafolios de construcciones, infraestructura de energía y comunicaciones, y cultivos, los resultados se presentaron mediante curvas de excedencia de perdidas y valores de PML. Por último, la evaluación beneficios-costo de opciones de intervención analizo variables individuales de intervenciones estructurales y se realizó un análisis beneficio-costo para seleccionar las opciones de intervención mas efectivas. Se evaluaron de manera holística las implicaciones de las alternativas propuestas.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No </t>
-  </si>
-  <si>
-    <t>Riesgo de amenza, modelación, cultivos, infraestrucutra, edificaciones, inundaciones, La Mojana</t>
-  </si>
-  <si>
-    <t>PR0008</t>
-  </si>
-  <si>
-    <t>1-Amenaza</t>
-  </si>
-  <si>
-    <t>Es una subcarpeta de la carpeta INF GEOGRAFICA del proyecto.  la carpeta denominada "Amenazas" contiene la información de probabilidad de excedencia y amenaza integrada</t>
-  </si>
-  <si>
-    <t>Carpeta</t>
-  </si>
-  <si>
-    <t>folder</t>
-  </si>
-  <si>
-    <t>En esta carpeta se encuentra una evaluación de los riesgos hidrológicos e infraestructurales en algunas zonas de la región de La Mojana, utilizando modelos de probabilidad de excedencia y análisis de amenaza integrada. Se encuentran en esta carpeta 117 archivos en cinco subcarpetas, que contienen datos sobre el comportamiento de infraestructuras hidráulicas frente a eventos extremos. La probabilidad de excedencia se utilizó para evaluar la resistencia de estructuras clave, como diques y muros de contención, ante diferentes escenarios de riesgo. Los archivos de Mapas de probabilidad de excedencia presentan datos raster que muestran la probabilidad de que el agua exceda las alturas de diseño en situaciones de riesgo, mientras que los mapas de la carpeta de Amenaza integrada analizan el nivel de amenaza en función de eventos con distintos tiempos de retorno (TR), como 2, 10, 50 y 100 años. El estudio ofrece una visión integral del riesgo en infraestructuras de La Mojana, facilitando la planificación de medidas de mitigación. Las carpetas "Altura de diseño muros cabeceras" y "Estado actual" incluyen mapas que modelan el comportamiento de los muros bajo diversas alturas de diseño y ofrecen información sobre las condiciones actuales de estas estructuras, respectivamente. Esta información permite la comparación entre el estado actual y escenarios futuros bajo diferentes condiciones de riesgo.</t>
-  </si>
-  <si>
-    <t>La información de las carpetas son en formato .jpg, .Tiff, asi como archivos en excel, shape files, y .grd</t>
-  </si>
-  <si>
-    <t>La Mojana;  riesgo hidrológico;  infraestructura;  probabilidad de excedencia;  análisis de amenaza integrada;  modelación;  tiempos de retorno;  resiliencia;  gestión del riesgo;  infraestructuras hidráulicas</t>
-  </si>
-  <si>
-    <t>PR0009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2-Exposición </t>
-  </si>
-  <si>
-    <t>Es una subcarpeta de la carpeta INF GEOGRAFICA del proyecto.  la carpeta denominada "Exposicion" contiene la información de  los archivos relacionados con el componente de EXPOSICIÓN de La Mojana. Se divide en tres grandes carpetas:  "Cultivos" donde se encuentran todos los archivos relacionados con la construcción de la base de datos de cultivos en La Mojana; "Edificaciones" donde se encuentran todos los archivos relacionados con la construcción de la base de datos de edificaciones en La Mojana e "Infraestructura energia"</t>
-  </si>
-  <si>
-    <t>La carpeta “Exposición” documenta la exposición de infraestructuras y cultivos en los municipios del área núcleo de La Mojana, como parte de un proyecto más amplio de modelamiento de riesgos. La carpeta "Exposición" contiene 688 archivos organizados en 33 subcarpetas, que albergan datos sobre cultivos y edificaciones, los cuales se utilizan para evaluar la vulnerabilidad de la región ante eventos hidrometeorológicos._x000D_
-La información sobre cultivos se organiza en cuatro fases (siembra, vegetativa, florecimiento, cosecha) y se presenta para cada uno de los 11 municipios y en un archivo consolidado. Estos archivos incluyen datos geoespaciales que describen la extensión de los cultivos en hectáreas, el tipo de cultivo (arroz, maíz, yuca, entre otros), y el valor económico de reposición en millones de pesos. Estos shapefiles fueron clave para modelar los riesgos en las distintas fases del crecimiento de los cultivos.  Por otro lado, la carpeta de edificaciones contiene shapefiles que describen la exposición de viviendas, instituciones educativas, y otros tipos de infraestructuras en La Mojana. Se incluyen mapas y análisis tanto a nivel municipal como sectorial (comercial, educativo, industrial, residencial, entre otros). Los archivos también permiten evaluar la exposición de proyectos específicos de reasentamiento y describen los elementos vulnerables en la región. Además, la carpeta incluye los archivos relacionados con la exposición del portafolio de energía – postes y torres – de La Mojana. Se presenta un shapefile consolidado en la subcarpeta "Completo", que contiene todos los postes y torres utilizados para las corridas de riesgo. También hay shapefiles individuales para los postes y las torres, usados específicamente para modelar su riesgo en la región.  Finalmente, esta información fue utilizada para generar una base de datos de exposición definitiva, la cual alimentó modelos de riesgo y permitió visualizar escenarios de impacto potencial, proporcionando insumos críticos para la planificación y gestión del riesgo en la región de La Mojana.</t>
-  </si>
-  <si>
-    <t>La información de las carpetas estan en diversos formatos por ejemplo: .shp.  Hay archivos que no son útiles para la plataforma como son los .mxd</t>
-  </si>
-  <si>
-    <t>La Mojana;  riesgo hidrometeorológico;  exposición;  infraestructura;  cultivos;  energía;  vulnerabilidad;  modelación de riesgo;  shapefiles;  base de datos;  planificación del riesgo;  gestión del riesgo</t>
-  </si>
-  <si>
-    <t>PR0010</t>
-  </si>
-  <si>
-    <t>3-Riesgo</t>
-  </si>
-  <si>
-    <t>La carpeta "Riesgo" contiene información sobre la vulnerabilidad de infraestructuras, cultivos y redes de energía en la región de La Mojana ante eventos de riesgo,  incluyendo shapefiles,  archivos de texto y un archivo Excel que representan diferentes escenarios y análisis de riesgo.</t>
-  </si>
-  <si>
-    <t>La carpeta "Riesgo" del proyecto Mojana alberga una colección de 641 archivos, organizados en 23 subcarpetas, que documentan el riesgo para las infraestructuras, los cultivos y la infraestructura energética en los municipios del área núcleo de La Mojana. La información se divide en subcarpetas que representan diferentes enfoques del análisis de riesgo. La subcarpeta "Edificaciones" contiene shapefiles que representan el riesgo de las edificaciones en La Mojana bajo las condiciones actuales de amenaza, segmentados en seis categorías: "Completo", "4proyectos", "Educación priorizado", "Residencial priorizado", "Por municipios" y "Por sector". Cada categoría incluye un shapefile que contiene la pérdida anual esperada de cada elemento ("PF") y un archivo de texto con información sobre los escenarios de riesgo, incluyendo la frecuencia del escenario, el valor esperado de la pérdida, la desviación estándar y el valor expuesto. La subcarpeta "Cultivos" contiene shapefiles que representan el riesgo para los cultivos de La Mojana bajo las condiciones actuales de amenaza, en dos categorías: "Completo" y "Por municipios". Cada categoría incluye un shapefile que contiene la pérdida anual esperada de cada elemento ("PF") y un archivo de texto con información sobre los escenarios de riesgo, incluyendo la frecuencia del escenario, el valor esperado de la pérdida, la desviación estándar y el valor expuesto. La subcarpeta "Evaluación Holística" incluye un archivo de Excel que presenta una evaluación holística del riesgo en La Mojana. La subcarpeta "Infraestructura de energía" contiene tres archivos shapefiles que representan las redes de torres y postes. Esta información, compuesta por archivos shapefiles, archivos de texto y archivos Excel, representa una valiosa fuente de datos para la gestión del riesgo en La Mojana. Su análisis permite identificar las áreas más vulnerables, evaluar los impactos potenciales de diferentes escenarios de riesgo y, por lo tanto, facilitar la toma de decisiones estratégicas para la mitigación de riesgos y la gestión de la cuenca.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La información de las carpetas estan en diversos formatos por ejemplo: .shp.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">La Mojana;  riesgo;  infraestructura;  cultivos;  energía;  shapefiles;  evaluación holística;  escenarios de riesgo;  pérdida anual esperada (PF);  tiempo de retorno;  gestión del riesgo;  modelación de riesgo;  vulnerabilidad;  análisis de riesgo;  toma de decisiones. </t>
-  </si>
-  <si>
-    <t>PR0011</t>
-  </si>
-  <si>
-    <t>4-Vulnerabilidad</t>
-  </si>
-  <si>
-    <t>La carpeta "Vulnerabilidad" contiene archivos que representan las curvas de vulnerabilidad de cultivos, edificaciones e infraestructura energética en La Mojana, junto con archivos que relacionan estas curvas con la exposición de los elementos,  facilitando la modelación del riesgo en la región.</t>
-  </si>
-  <si>
-    <t>La carpeta "Vulnerabilidad" del proyecto Mojana contiene 59 archivos organizados en tres subcarpetas:  "Cultivos",  "Edificaciones" e "Infraestructura_energia".  Esta carpeta alberga la información necesaria para modelar la vulnerabilidad de los diferentes componentes del territorio ante eventos de riesgo.  Cada subcarpeta contiene archivos *.fvu,  que representan las curvas de vulnerabilidad de los diferentes elementos (cultivos, sistemas estructurales de las edificaciones y torres y postes de energía),  y un archivo *.dat que relaciona las curvas de vulnerabilidad con la exposición.  Estos archivos fueron utilizados para la modelación del riesgo en el proyecto.  Adicionalmente, se incluye un archivo de Excel que grafica las curvas de vulnerabilidad,  facilitando la visualización y el análisis de la información. La carpeta "Vulnerabilidad"  representa un componente esencial del proyecto Mojana,  proporcionando la información necesaria para evaluar la resistencia de diferentes elementos ante eventos de riesgo y,  por lo tanto,  contribuyendo a la gestión del riesgo en la región.</t>
-  </si>
-  <si>
-    <t>La carpeta solo contiene los archivos del modelo mas no salidas graficas o archivos geograficos</t>
-  </si>
-  <si>
-    <t>Mojana;  vulnerabilidad;  cultivos;  edificaciones;  infraestructura energética;  curvas de vulnerabilidad;  archivos *.fvu;  archivos *.dat;  modelación del riesgo;  gestión del riesgo</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0009/02_PRODUCTOS/DOCS</t>
+    <t>INFORME FINAL (Informe11)</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0009/02_PRODUCTOS/DOCS/INFORME FINAL (Informe11).pdf</t>
+  </si>
+  <si>
+    <t>Este informe presentó los resultados de una consultoría especializada realizada por el Fondo Adaptación, con el objetivo de apoyar la identificación de alternativas de intervención para reducir el riesgo de inundación en la región de La Mojana</t>
+  </si>
+  <si>
+    <t>Este informe aborda la identificación de alternativas de intervención para reducir el riesgo de inundación en la región de La Mojana. Este estudio se enfocó en cuatro aspectos principales: 1. El seguimiento y acompañamiento para la identificación de alternativas de intervención, 2. Realización de la modelación de vulnerabilidad de inundación y la modelación probabilística de riesgo para caracterización de perdidas, en situación actual y de escenarios futuros, 3. Evaluación de la relación beneficio-costo de las alternativas identificadas, 4. Acompañamiento técnico al proceso de definición del plan de acción para la Mojana. La metodología de análisis y evaluación del riesgo utilizó un enfoque probabilista para el análisis de riesgo, considerando los componentes de amenaza, elementos expuestos y vulnerabilidad. Se calcularon métricas de riesgo como la curva de excedencia de perdidas y la perdida máxima probable. En cuanto a la caracterización de elementos expuestos, se genero una base de datos detallada de elementos expuestos, incluyendo construcciones (viviendas, infraestructura de salud y educación), infraestructura de energía y telecomunicaciones, y cultivos. Se realizó una valoración económica de los elementos expuestos para estimar las perdidas potenciales. La evaluación probabilista de la amenaza por inundación analizo escenarios históricos y futuros de inundación, considerando la situación actual y las alternativas de intervención propuestas, además, se realizó un análisis de probabilidades de excedencia para diferentes alturas de inundación. La modelación de la vulnerabilidad ante inundaciones desarrollo modelos de vulnerabilidad probabilistas para edificaciones, infraestructura y cultivos, utilizando curvas de vulnerabilidad que relacionan el nivel de inundación con la variación de los momentos de probabilidad de las perdidas. Seguidamente, la evaluación probabilista del riesgo físico por inundación evaluó el riesgo para los portafolios de construcciones, infraestructura de energía y comunicaciones, y cultivos, los resultados se presentaron mediante curvas de excedencia de perdidas y valores de PML. Por último, la evaluación beneficios-costo de opciones de intervención analizo variables individuales de intervenciones estructurales y se realizó un análisis beneficio-costo para seleccionar las opciones de intervención mas efectivas. Se evaluaron de manera holística las implicaciones de las alternativas propuestas.</t>
   </si>
   <si>
     <t>Sin observaciones</t>
   </si>
   <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0009/02_PRODUCTOS/INF GEOGRAFICA</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0009/02_PRODUCTOS/INF GEOGRAFICA/2-Exposicion</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0009/02_PRODUCTOS/INF GEOGRAFICA/3-Riesgo</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0009/02_PRODUCTOS/INF GEOGRAFICA/4-Vulnerabilidad</t>
+    <t>Riesgo de amenaza, modelación, cultivos, infraestrucutra, edificaciones, inundaciones, La Mojana</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -367,6 +279,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -447,16 +366,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -465,12 +382,6 @@
   <dxfs count="23">
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -487,6 +398,27 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <u val="none"/>
+        <color rgb="FF000000"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -505,36 +437,21 @@
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -782,15 +699,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -798,10 +706,25 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -817,26 +740,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{071F1EEE-F40A-4A05-BF36-E5D4A7F1ECBC}" name="Tabla2" displayName="Tabla2" ref="A1:R12" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" headerRowBorderDxfId="22" tableBorderDxfId="21" totalsRowBorderDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{071F1EEE-F40A-4A05-BF36-E5D4A7F1ECBC}" name="Tabla2" displayName="Tabla2" ref="A1:R8" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21" headerRowBorderDxfId="19" tableBorderDxfId="20" totalsRowBorderDxfId="18">
   <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{0EB386ED-25C4-4E98-8607-7E1DEB7DDB25}" name="CODIGO DE PROYECTO" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{A2B4539E-FF4A-4F1D-84B8-31E807539DC0}" name="CODIGO DE PRODUCTO" dataDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{36C4733C-CF76-49CB-8960-27BAC0F20B8C}" name="NOMBRE DEL PRODUCTO" dataDxfId="17"/>
-    <tableColumn id="16" xr3:uid="{A9EE677D-89BE-46F8-9F56-CDF846BFED90}" name="DIRECTORIO" dataDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{84BE1EF6-1951-4F5F-B928-ECD94B80B108}" name="AÑO" dataDxfId="15"/>
-    <tableColumn id="5" xr3:uid="{120C67DA-098C-4C43-9D35-DC1EC564158C}" name="AUTOR 1" dataDxfId="14"/>
-    <tableColumn id="6" xr3:uid="{4134684B-4574-4B5E-858F-5DF13748C3D4}" name="AUTOR 2" dataDxfId="13"/>
-    <tableColumn id="7" xr3:uid="{6636B1CE-48D4-474F-9E69-B0147F98E56A}" name="AUTOR 3" dataDxfId="12"/>
-    <tableColumn id="8" xr3:uid="{A785369F-BAB6-4525-BF7E-79059FDB08FA}" name="AUTOR 4" dataDxfId="11"/>
-    <tableColumn id="9" xr3:uid="{DD501A71-0B82-4002-A7D3-B03D0BD64366}" name="AUTOR 5" dataDxfId="10"/>
-    <tableColumn id="10" xr3:uid="{09EBAF47-1419-432D-B99C-5C7FF18696C7}" name="DESCRIPCION" dataDxfId="9"/>
-    <tableColumn id="11" xr3:uid="{40F29E93-00E0-47EA-AF36-91914620CA4E}" name="TIPO DE PRODUCTO" dataDxfId="8"/>
-    <tableColumn id="12" xr3:uid="{A9C5F90F-7224-4707-8B96-A03FEC01F531}" name="FORMATO" dataDxfId="7"/>
-    <tableColumn id="13" xr3:uid="{F4F0116A-DBB0-4CF0-81C2-08E9870DA599}" name="RESUMEN" dataDxfId="6"/>
-    <tableColumn id="14" xr3:uid="{52F39B70-3383-437B-BDD0-78B7C6344B54}" name="CONTIENE ANEXOS" dataDxfId="5" dataCellStyle="Hipervínculo"/>
-    <tableColumn id="15" xr3:uid="{C8153761-218F-4F48-8D3C-3D901A0B2064}" name="ANEXOS" dataDxfId="4"/>
-    <tableColumn id="17" xr3:uid="{6024A4C9-2087-4496-BE27-B45D9C0DFD5A}" name="OBSERVACIONES" dataDxfId="3" dataCellStyle="Hipervínculo"/>
-    <tableColumn id="18" xr3:uid="{445C282B-F55F-48A3-B48E-9ED039D137ED}" name="PALABRAS CLAVE" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{0EB386ED-25C4-4E98-8607-7E1DEB7DDB25}" name="CODIGO DE PROYECTO" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{A2B4539E-FF4A-4F1D-84B8-31E807539DC0}" name="CODIGO DE PRODUCTO" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{36C4733C-CF76-49CB-8960-27BAC0F20B8C}" name="NOMBRE DEL PRODUCTO" dataDxfId="15"/>
+    <tableColumn id="16" xr3:uid="{A9EE677D-89BE-46F8-9F56-CDF846BFED90}" name="DIRECTORIO" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{84BE1EF6-1951-4F5F-B928-ECD94B80B108}" name="AÑO" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{120C67DA-098C-4C43-9D35-DC1EC564158C}" name="AUTOR 1" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{4134684B-4574-4B5E-858F-5DF13748C3D4}" name="AUTOR 2" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{6636B1CE-48D4-474F-9E69-B0147F98E56A}" name="AUTOR 3" dataDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{A785369F-BAB6-4525-BF7E-79059FDB08FA}" name="AUTOR 4" dataDxfId="9"/>
+    <tableColumn id="9" xr3:uid="{DD501A71-0B82-4002-A7D3-B03D0BD64366}" name="AUTOR 5" dataDxfId="8"/>
+    <tableColumn id="10" xr3:uid="{09EBAF47-1419-432D-B99C-5C7FF18696C7}" name="DESCRIPCION" dataDxfId="7"/>
+    <tableColumn id="11" xr3:uid="{40F29E93-00E0-47EA-AF36-91914620CA4E}" name="TIPO DE PRODUCTO" dataDxfId="6"/>
+    <tableColumn id="12" xr3:uid="{A9C5F90F-7224-4707-8B96-A03FEC01F531}" name="FORMATO" dataDxfId="5"/>
+    <tableColumn id="13" xr3:uid="{F4F0116A-DBB0-4CF0-81C2-08E9870DA599}" name="RESUMEN" dataDxfId="4"/>
+    <tableColumn id="14" xr3:uid="{52F39B70-3383-437B-BDD0-78B7C6344B54}" name="CONTIENE ANEXOS" dataDxfId="3"/>
+    <tableColumn id="15" xr3:uid="{C8153761-218F-4F48-8D3C-3D901A0B2064}" name="ANEXOS" dataDxfId="2"/>
+    <tableColumn id="17" xr3:uid="{6024A4C9-2087-4496-BE27-B45D9C0DFD5A}" name="OBSERVACIONES" dataDxfId="1"/>
+    <tableColumn id="18" xr3:uid="{445C282B-F55F-48A3-B48E-9ED039D137ED}" name="PALABRAS CLAVE" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1108,700 +1031,481 @@
   <dimension ref="A1:R12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="22.140625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="4"/>
-    <col min="6" max="8" width="9.5703125" style="4" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="4" customWidth="1"/>
-    <col min="10" max="10" width="18.140625" style="4" customWidth="1"/>
-    <col min="11" max="11" width="10.5703125" style="4" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" style="4" customWidth="1"/>
-    <col min="13" max="13" width="20" style="4" customWidth="1"/>
-    <col min="14" max="14" width="18.28515625" style="4" customWidth="1"/>
-    <col min="15" max="15" width="9.7109375" style="4" customWidth="1"/>
-    <col min="16" max="16" width="15.85546875" style="4" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="8.140625" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" customWidth="1"/>
+    <col min="3" max="3" width="26.5703125" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.140625" customWidth="1"/>
+    <col min="7" max="8" width="9.5703125" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" customWidth="1"/>
+    <col min="10" max="10" width="18.140625" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" customWidth="1"/>
+    <col min="13" max="13" width="20" customWidth="1"/>
+    <col min="14" max="14" width="18.28515625" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" customWidth="1"/>
+    <col min="16" max="16" width="6" customWidth="1"/>
+    <col min="17" max="17" width="19.85546875" customWidth="1"/>
+    <col min="18" max="18" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:18">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="R1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:18" ht="15">
+      <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="E2" s="6">
+      <c r="D2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="2">
         <v>2015</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="6" t="s">
+      <c r="F2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="G2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="15">
+      <c r="A3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="2">
+        <v>2016</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="G3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="15">
+      <c r="A4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="2">
+        <v>2016</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="G4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q4" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="14.25" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="2">
+        <v>2014</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="M2" s="7" t="s">
+      <c r="G5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="L5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="M5" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="P2" s="7" t="s">
+      <c r="N5" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q5" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="15">
+      <c r="A6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="2">
+        <v>2014</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="G6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O6" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="R2" s="7" t="s">
-        <v>29</v>
+      <c r="P6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q6" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+    <row r="7" spans="1:18" ht="15">
+      <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E3" s="6">
+      <c r="B7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" s="2">
+        <v>2014</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q7" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="15">
+      <c r="A8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="2">
         <v>2016</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="6" t="s">
+      <c r="F8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="M3" s="6" t="s">
+      <c r="G8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="L8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="P3" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="R3" s="6" t="s">
-        <v>35</v>
+      <c r="M8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q8" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E4" s="6">
-        <v>2016</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="P4" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="R4" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="E5" s="6">
-        <v>2014</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="M5" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N5" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="P5" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="R5" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="E6" s="6">
-        <v>2014</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="L6" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="M6" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="N6" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="P6" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="R6" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="E7" s="6">
-        <v>2014</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="L7" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="M7" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="N7" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="P7" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q7" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="R7" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="E8" s="6">
-        <v>2016</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="N8" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="P8" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q8" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="R8" s="6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="E9" s="6">
-        <v>2016</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="L9" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="M9" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="N9" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="O9" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="P9" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q9" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="R9" s="6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="E10" s="6">
-        <v>2016</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K10" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="L10" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="M10" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="N10" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="O10" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="P10" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q10" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="R10" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="E11" s="6">
-        <v>2016</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K11" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="L11" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="M11" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="N11" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="O11" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="P11" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q11" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="R11" s="6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="E12" s="6">
-        <v>2016</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K12" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="L12" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="M12" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="N12" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="O12" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="P12" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q12" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="R12" s="6" t="s">
-        <v>95</v>
-      </c>
-    </row>
+    <row r="9" spans="1:18" ht="15"/>
+    <row r="10" spans="1:18" ht="15"/>
+    <row r="11" spans="1:18" ht="15"/>
+    <row r="12" spans="1:18" ht="15"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1965,27 +1669,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02021F42-7878-49FA-AE56-8BD3BCC0EFBB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02021F42-7878-49FA-AE56-8BD3BCC0EFBB}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CD29E99-3B6E-46DF-8BF3-E73BB64F02C9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="3277f09b-73d6-4795-b7e6-f63d7d60cc69"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CD29E99-3B6E-46DF-8BF3-E73BB64F02C9}"/>
 </file>